--- a/biology/Histoire de la zoologie et de la botanique/Philip_D._Gingerich/Philip_D._Gingerich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philip_D._Gingerich/Philip_D._Gingerich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip D. Gingerich, né le 23 mars 1946, est un professeur en paléontologie, en géologie, en biologie et en anthropologie. Il est directeur du Museum of Paleontology de l'université du Michigan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On lui doit la découverte de plusieurs fossiles :
 Pakicetus Gingerich &amp; Russell, 1981
